--- a/tasks/19/2 кучи/16330.xlsx
+++ b/tasks/19/2 кучи/16330.xlsx
@@ -39,7 +39,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +82,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,9 +133,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -142,31 +145,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -466,7 +455,7 @@
   <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,9 +903,9 @@
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="U18" s="8"/>
+      <c r="U18" s="7"/>
       <c r="V18" s="1">
-        <f t="shared" ref="N9:V37" si="0">$A18*2+V$1</f>
+        <f t="shared" ref="N18:V37" si="0">$A18*2+V$1</f>
         <v>59</v>
       </c>
       <c r="W18" s="4"/>
@@ -942,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="S19" s="8"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -978,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1022,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="O21" s="8"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1074,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="M22" s="8"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1134,9 +1123,9 @@
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="1">
-        <f t="shared" ref="B9:Q29" si="1">$A23*2+L$1</f>
+        <f t="shared" ref="B23:M29" si="1">$A23*2+L$1</f>
         <v>59</v>
       </c>
       <c r="M23" s="1">
@@ -1202,7 +1191,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1277,8 +1266,8 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1362,7 +1351,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1453,8 +1442,8 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -3423,7 +3412,7 @@
   <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,6 +3492,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
+      <c r="G2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -3526,6 +3517,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -3549,6 +3542,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -3572,6 +3567,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -3595,6 +3592,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -3618,6 +3617,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -3641,6 +3642,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -3664,6 +3667,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -3687,6 +3692,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="5"/>
+      <c r="G10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -3710,6 +3717,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -3733,6 +3742,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -3756,6 +3767,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -3779,6 +3792,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -3802,6 +3817,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -3825,6 +3842,8 @@
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
+      <c r="G16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -3848,6 +3867,8 @@
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
+      <c r="G17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -3871,9 +3892,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="U18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="U18" s="7"/>
       <c r="V18" s="1">
-        <f t="shared" ref="P18:AD46" si="0">$A18*2+V$1</f>
+        <f t="shared" ref="P18:V21" si="0">$A18*2+V$1</f>
         <v>59</v>
       </c>
       <c r="W18" s="4"/>
@@ -3899,7 +3922,9 @@
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="S19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3935,7 +3960,9 @@
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="Q20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3979,7 +4006,9 @@
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="O21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4031,9 +4060,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="M22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="1">
-        <f t="shared" ref="N22:V50" si="1">$A22*2+N$1</f>
+        <f t="shared" ref="N22:V44" si="1">$A22*2+N$1</f>
         <v>59</v>
       </c>
       <c r="O22" s="1">
@@ -4091,9 +4122,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="K23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="1">
-        <f t="shared" ref="L23:AA43" si="2">$A23*2+L$1</f>
+        <f t="shared" ref="L23:M23" si="2">$A23*2+L$1</f>
         <v>59</v>
       </c>
       <c r="M23" s="1">
@@ -4158,10 +4191,12 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="1">
-        <f t="shared" ref="J24:Y44" si="3">$A24*2+J$1</f>
+        <f t="shared" ref="J24:M24" si="3">$A24*2+J$1</f>
         <v>59</v>
       </c>
       <c r="K24" s="1">
@@ -4234,10 +4269,10 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="G25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:W45" si="4">$A25*2+H$1</f>
+        <f t="shared" ref="H25:M25" si="4">$A25*2+H$1</f>
         <v>59</v>
       </c>
       <c r="I25" s="1">
@@ -4318,10 +4353,11 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="10"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:U46" si="5">$A26*2+F$1</f>
+        <f t="shared" ref="F26:M26" si="5">$A26*2+F$1</f>
         <v>59</v>
       </c>
       <c r="G26" s="1">
@@ -4410,10 +4446,10 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:S47" si="6">$A27*2+D$1</f>
+        <f t="shared" ref="D27:M27" si="6">$A27*2+D$1</f>
         <v>59</v>
       </c>
       <c r="E27" s="1">
@@ -4511,7 +4547,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:Q48" si="7">$A28*2+B$1</f>
+        <f t="shared" ref="B28:M44" si="7">$A28*2+B$1</f>
         <v>59</v>
       </c>
       <c r="C28" s="1">
@@ -6372,5 +6408,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>